--- a/main/ig/CodeSystem-competence-code-system.xlsx
+++ b/main/ig/CodeSystem-competence-code-system.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-28T09:57:54+00:00</t>
+    <t>2025-04-28T10:03:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
